--- a/OBC_prototypeA/Pins.xlsx
+++ b/OBC_prototypeA/Pins.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Richard/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Richard/sfusat/obc-hardware/OBC_prototypeA/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="6180" windowWidth="14400" windowHeight="9660" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Pins and KiCad" sheetId="2" r:id="rId1"/>
@@ -718,7 +718,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -735,6 +735,22 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -763,8 +779,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -774,7 +792,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1053,8 +1073,8 @@
   <dimension ref="A1:Q145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G30" sqref="G30"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:H145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3950,6 +3970,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
